--- a/biology/Biochimie/Marqueur_fluorescent_en_PCR/Marqueur_fluorescent_en_PCR.xlsx
+++ b/biology/Biochimie/Marqueur_fluorescent_en_PCR/Marqueur_fluorescent_en_PCR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux marqueurs fluorescents sont utilisés en PCR (réaction en chaîne par polymérase).
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Par souci de clarté, les dates correspondent à la première publication sur le domaine et seuls les premiers auteurs sont cités, les références complètes étant dans le chapitre "bibliographie".
 1880 : Premier milieu de culture synthétique pour micro-organismes fluorescents par Hueppe F.
@@ -552,9 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les intercalants de l'ADN
-Les marqueurs du petit sillon
-Les cyanhydrines asymétriques
+          <t>Les cyanhydrines asymétriques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -585,11 +603,124 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les sondes d'hybridation
-Les sondes d'hydrolyses
-La sonde est construite à l'aide d'un donneur (la fluorescéine dont la longueur d'onde d'excitation est à 530 nm) et d'un "quencheur", greffés sur un polynucléotide complémentaire de la séquence d'ADN d'intérêt.
-Les sondes Molecular Beacons
-Les sondes Scorpions
+          <t>Les sondes d'hybridation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marqueur_fluorescent_en_PCR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marqueur_fluorescent_en_PCR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les marqueurs séquences spécifiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les sondes d'hydrolyses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sonde est construite à l'aide d'un donneur (la fluorescéine dont la longueur d'onde d'excitation est à 530 nm) et d'un "quencheur", greffés sur un polynucléotide complémentaire de la séquence d'ADN d'intérêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marqueur_fluorescent_en_PCR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marqueur_fluorescent_en_PCR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les marqueurs séquences spécifiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les sondes Molecular Beacons</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marqueur_fluorescent_en_PCR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marqueur_fluorescent_en_PCR</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les marqueurs séquences spécifiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les sondes Scorpions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
